--- a/InternationalChild/国际育儿工作量统计.xlsx
+++ b/InternationalChild/国际育儿工作量统计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1460" yWindow="960" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,17 @@
     <sheet name="合家秀" sheetId="7" r:id="rId8"/>
     <sheet name="后台管理" sheetId="2" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="209">
   <si>
     <t>一级模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56,14 +61,6 @@
   </si>
   <si>
     <t>轮播图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端工时（天/人）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端工时（人天）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -136,15 +133,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>展现形式：后台单独模块设置？
-分类获取？数量？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则：奖励规则？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用品推荐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -153,10 +141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>规则？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>童音秀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -177,10 +161,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>展示规则？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>会员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -197,10 +177,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>搜索的是什么？展现形式？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>友情链接</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -265,11 +241,379 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>顶部播放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请主播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有搜索结果页？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时（天/人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到规则？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝宝会员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长会员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主播会员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有上传作品的页面？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员说明写到这里，很多字看不清。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>童音电台</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>顶部播放</t>
+    <t>详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注，留言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图文，音频，点赞，留言，分享</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐微课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8商5育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频播放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享、点赞、打赏、留言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐趣播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲师团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲师列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品轮播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐讲师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明星讲师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新讲师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲师详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧导航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热播新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐主播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图文，视频展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主播风采及详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主播信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮播主播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主播达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主播新秀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣播达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧趣播达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣播新秀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最热趣播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关趣播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新趣播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐趣播达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时（人/天）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>童音电台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优微课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子悦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动舞台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣味玩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合家秀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注饮食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐阅读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最热文章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新文章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图文混排</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关文章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐童音热播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐微课热播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐最新活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表评论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注健康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注用品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用品推荐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌推荐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐趣题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -277,71 +621,239 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>申请主播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电台列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧导航</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主播列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有搜索结果页？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时（天/人）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到规则？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新新闻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员中心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝宝会员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长会员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主播会员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有上传作品的页面？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
+    <t>详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动公告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动纪实</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最热活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享点赞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动公告详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关公告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容：图文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上活动详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马上参加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已报会员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号二维码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动纪实</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享，图文或视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮播图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8商测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣味测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最热测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣题分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣题列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最热趣题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐趣题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新趣题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈弗游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最热游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽默智慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐幽默</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最热幽默</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新幽默</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关幽默</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐童音热播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐微课热播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐最新活动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -349,239 +861,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>会员说明写到这里，很多字看不清。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>童音电台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注，留言</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图文，音频，点赞，留言，分享</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导航</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐微课</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8商5育</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频播放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享、点赞、打赏、留言</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐新闻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐趣播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲师团</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲师列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品轮播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐讲师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明星讲师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新讲师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲师详情页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新闻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧导航</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新闻列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>热播新闻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐新闻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐主播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关新闻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放详情页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图文，视频展示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主播风采及详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主播信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮播主播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主播达人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主播新秀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>趣播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>趣播达人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传视频</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>右侧趣播达人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>趣播新秀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最热趣播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关趣播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新趣播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐趣播达人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主站</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时（人/天）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>童音电台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优微课</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲子悦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动舞台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>趣味玩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合家秀</t>
+    <t>怀孕日记</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -646,6 +934,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -691,12 +988,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -732,20 +1032,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="60% - 强调文字颜色 3" xfId="1" builtinId="40"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1073,14 +1400,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="2" customWidth="1"/>
@@ -1092,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -1101,45 +1428,45 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B8" s="10"/>
     </row>
@@ -1164,26 +1491,31 @@
     <hyperlink ref="A8" location="合家秀!A1" display="合家秀"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1">
@@ -1200,59 +1532,59 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="12" t="s">
-        <v>53</v>
+      <c r="A2" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" s="11">
+      <c r="F2" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="12"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="12"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F4" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="18"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="7">
@@ -1260,55 +1592,55 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="12"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="12"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="12"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="7">
@@ -1316,13 +1648,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="12"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="7">
@@ -1330,13 +1662,13 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="12"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="7">
@@ -1344,13 +1676,13 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="12"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="7">
@@ -1358,37 +1690,37 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11" t="s">
-        <v>17</v>
+      <c r="A13" s="18"/>
+      <c r="B13" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="11">
+      <c r="F13" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7">
@@ -1396,9 +1728,9 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="12"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1408,9 +1740,9 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="12"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1420,9 +1752,9 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="12"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1432,9 +1764,9 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="12"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1444,9 +1776,9 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="12"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1456,11 +1788,11 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="12" t="s">
-        <v>59</v>
+      <c r="A21" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
@@ -1470,9 +1802,9 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="12"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
@@ -1482,9 +1814,9 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="12"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
@@ -1494,9 +1826,9 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="12"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
@@ -1506,9 +1838,9 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="12"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
@@ -1518,36 +1850,36 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="12"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="11">
+      <c r="F26" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="12"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>40</v>
+      <c r="A28" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="9"/>
@@ -1557,10 +1889,10 @@
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="9"/>
@@ -1570,10 +1902,10 @@
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="10" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="9"/>
@@ -1583,10 +1915,10 @@
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1595,12 +1927,12 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11" t="s">
-        <v>41</v>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1610,10 +1942,10 @@
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1623,10 +1955,10 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="10" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1636,10 +1968,10 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -1648,26 +1980,26 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11" t="s">
-        <v>72</v>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="10" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F36" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1676,93 +2008,93 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F38" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="11" t="s">
-        <v>45</v>
+      <c r="A39" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="11">
+      <c r="F39" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="11"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="11"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="11"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="11"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="11"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="11"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="11"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="11"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="11"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="7"/>
@@ -1786,7 +2118,7 @@
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="10" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F48" s="7">
         <f>SUM(F2:F47)</f>
@@ -1898,7 +2230,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1908,22 +2240,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="28.375" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:7" ht="17">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1937,18 +2269,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="11" t="s">
-        <v>54</v>
+      <c r="A2" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1959,9 +2291,9 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="11"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1972,12 +2304,12 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
-        <v>83</v>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="9"/>
@@ -1987,13 +2319,13 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10">
@@ -2002,12 +2334,12 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
-        <v>85</v>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="9"/>
@@ -2017,13 +2349,13 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10">
@@ -2032,9 +2364,9 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="11"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -2048,7 +2380,7 @@
     <row r="10" spans="1:7" ht="13.5" customHeight="1"/>
     <row r="11" spans="1:7" ht="13.5" customHeight="1">
       <c r="E11" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7">
         <f>SUM(F2:F10)</f>
@@ -2067,26 +2399,31 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="36.125" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="32.125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:7" ht="17">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2100,40 +2437,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="11" t="s">
-        <v>93</v>
+      <c r="A2" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="11">
+      <c r="F2" s="17">
         <v>2</v>
       </c>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="11"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="11"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="10" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="9"/>
@@ -2143,9 +2480,9 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="11"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="9"/>
@@ -2155,9 +2492,9 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="11"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="10" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="9"/>
@@ -2167,9 +2504,9 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="11"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
@@ -2179,15 +2516,15 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11" t="s">
-        <v>84</v>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10">
@@ -2196,10 +2533,10 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
@@ -2209,10 +2546,10 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="9"/>
@@ -2222,318 +2559,318 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="15" t="s">
-        <v>98</v>
+      <c r="A11" s="17"/>
+      <c r="B11" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F11" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="10" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F12" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="10" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F13" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="11"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="10" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="11"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="10" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="11"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="10" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F16" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>106</v>
+      <c r="A17" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="F17" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14" t="s">
-        <v>107</v>
+      <c r="A18" s="17"/>
+      <c r="B18" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="F18" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="14" t="s">
-        <v>108</v>
+      <c r="A19" s="17"/>
+      <c r="B19" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="F19" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14" t="s">
-        <v>109</v>
+      <c r="A20" s="17"/>
+      <c r="B20" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="F20" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14" t="s">
-        <v>110</v>
+      <c r="A21" s="17"/>
+      <c r="B21" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="F21" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11"/>
-      <c r="B22" s="15" t="s">
-        <v>112</v>
+      <c r="A22" s="17"/>
+      <c r="B22" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F22" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="10" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F23" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F24" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="11"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F25" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="11"/>
-      <c r="B26" s="15" t="s">
-        <v>114</v>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F26" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="11"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F27" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="11"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="10" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F28" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="11"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="10" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F29" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="11"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="10" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F30" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="11"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="10" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F31" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>121</v>
+      <c r="A32" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="F32" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="11"/>
-      <c r="B33" s="14" t="s">
-        <v>122</v>
+      <c r="A33" s="17"/>
+      <c r="B33" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="F33" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="11"/>
-      <c r="B34" s="14" t="s">
-        <v>123</v>
+      <c r="A34" s="17"/>
+      <c r="B34" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="F34" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="11"/>
-      <c r="B35" s="14" t="s">
-        <v>124</v>
+      <c r="A35" s="17"/>
+      <c r="B35" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="F35" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="11"/>
-      <c r="B36" s="14" t="s">
-        <v>125</v>
+      <c r="A36" s="17"/>
+      <c r="B36" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="F36" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="11"/>
-      <c r="B37" s="15" t="s">
-        <v>84</v>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F37" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="11"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="10" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F38" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="11"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="10" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F39" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="11"/>
-      <c r="B40" s="15"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="10" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F40" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="11"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F41" s="10">
         <v>1</v>
@@ -2541,7 +2878,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="E43" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F43" s="10">
         <f>SUM(F2:F42)</f>
@@ -2550,485 +2887,954 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B37:B41"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="A17:A31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B37:B41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="15" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="12"/>
-      <c r="B4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="57">
-      <c r="A5" s="12"/>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="28.5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="12"/>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="12"/>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
+      <c r="E1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="12"/>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="12"/>
-      <c r="B12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="F1" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="18"/>
+      <c r="B5" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="18"/>
+      <c r="B6" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="18"/>
+      <c r="B7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="18"/>
+      <c r="B8" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="18"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="18"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="18"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="E23" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="11">
+        <f>SUM(F2:F22)</f>
         <v>18</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="12"/>
-      <c r="B15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="12"/>
-      <c r="B16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="12"/>
-      <c r="B17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="12"/>
-      <c r="B18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="12"/>
-      <c r="B19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="12"/>
-      <c r="B20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="12"/>
-      <c r="B22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="12"/>
-      <c r="B23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="12"/>
-      <c r="B24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="12"/>
-      <c r="B25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="12"/>
-      <c r="B26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="12"/>
-      <c r="B28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="12"/>
-      <c r="B29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="12"/>
-      <c r="B30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="12"/>
-      <c r="B31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="12"/>
-      <c r="B32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="12"/>
-      <c r="B33" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A33"/>
+  <mergeCells count="2">
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A4:A13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="15" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17"/>
+      <c r="B3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17"/>
+      <c r="B5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17"/>
+      <c r="B8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="17"/>
+      <c r="B18" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="17"/>
+      <c r="B19" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="17"/>
+      <c r="B20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="E22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="11">
+        <f>SUM(F2:F21)</f>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A2:A16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="15" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17"/>
+      <c r="B4" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17"/>
+      <c r="B5" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17"/>
+      <c r="B7" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17"/>
+      <c r="B8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="17"/>
+      <c r="B9" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="17"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="17"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="17"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="17"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="17"/>
+      <c r="B15" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="17"/>
+      <c r="B16" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="17"/>
+      <c r="B17" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="17"/>
+      <c r="B18" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="17"/>
+      <c r="B20" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="17"/>
+      <c r="B21" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="17"/>
+      <c r="B22" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="17"/>
+      <c r="B23" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="C29" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="C30" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="22">
+        <f>SUM(F2:F33)</f>
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A18"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="15" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/InternationalChild/国际育儿工作量统计.xlsx
+++ b/InternationalChild/国际育儿工作量统计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="960" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="1455" yWindow="960" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="合家秀" sheetId="7" r:id="rId8"/>
     <sheet name="后台管理" sheetId="2" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>后台管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -862,14 +858,18 @@
   </si>
   <si>
     <t>怀孕日记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -996,7 +996,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1047,16 +1047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1065,14 +1056,26 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - 强调文字颜色 3" xfId="1" builtinId="40"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1400,14 +1403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="2" customWidth="1"/>
@@ -1419,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -1428,54 +1431,54 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1500,22 +1503,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1">
@@ -1532,59 +1535,59 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="18" t="s">
-        <v>46</v>
+      <c r="A2" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" s="17">
+      <c r="F2" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="18"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="18"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:7" ht="28.5">
+      <c r="A5" s="22"/>
       <c r="B5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="7">
@@ -1592,55 +1595,55 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="18"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="18"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="18"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="18"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="7">
@@ -1648,13 +1651,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="18"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="7">
@@ -1662,13 +1665,13 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="18"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="7">
@@ -1676,13 +1679,13 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="18"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="7">
@@ -1690,37 +1693,37 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="17">
+      <c r="F13" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="17"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="18"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7">
@@ -1728,9 +1731,9 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="18"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1740,9 +1743,9 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="18"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1752,9 +1755,9 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="18"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1764,9 +1767,9 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="18"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1776,9 +1779,9 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="18"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1788,11 +1791,11 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="18" t="s">
-        <v>52</v>
+      <c r="A21" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
@@ -1802,9 +1805,9 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="18"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
@@ -1814,9 +1817,9 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="18"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
@@ -1826,9 +1829,9 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="18"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
@@ -1838,9 +1841,9 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="18"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
@@ -1850,36 +1853,36 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="18"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="17">
+      <c r="F26" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="18"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="17"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="C28" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="9"/>
@@ -1889,10 +1892,10 @@
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="9"/>
@@ -1902,10 +1905,10 @@
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="9"/>
@@ -1915,10 +1918,10 @@
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1927,12 +1930,12 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17" t="s">
-        <v>35</v>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1942,10 +1945,10 @@
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1955,10 +1958,10 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1968,10 +1971,10 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -1980,26 +1983,26 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -2008,93 +2011,93 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F38" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="17" t="s">
-        <v>38</v>
+      <c r="A39" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="17">
+      <c r="F39" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="17"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="21"/>
+      <c r="B41" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="17"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="17"/>
-      <c r="B41" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="17"/>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="17"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="17"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="17"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="17"/>
+      <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="17"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="17"/>
+      <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="17"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="17"/>
+      <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="7"/>
@@ -2118,7 +2121,7 @@
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F48" s="7">
         <f>SUM(F2:F47)</f>
@@ -2215,18 +2218,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="A39:A45"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="A2:A20"/>
-    <mergeCell ref="F39:F45"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="A39:A45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2240,22 +2243,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.375" customWidth="1"/>
+    <col min="6" max="6" width="27.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2269,18 +2272,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="17" t="s">
-        <v>47</v>
+      <c r="A2" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2291,9 +2294,9 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="17"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -2304,12 +2307,12 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
-        <v>70</v>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="9"/>
@@ -2319,13 +2322,13 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10">
@@ -2334,12 +2337,12 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="9"/>
@@ -2349,13 +2352,13 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10">
@@ -2364,9 +2367,9 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="17"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -2380,7 +2383,7 @@
     <row r="10" spans="1:7" ht="13.5" customHeight="1"/>
     <row r="11" spans="1:7" ht="13.5" customHeight="1">
       <c r="E11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7">
         <f>SUM(F2:F10)</f>
@@ -2408,22 +2411,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="36.125" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="32.125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2437,40 +2440,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="17" t="s">
-        <v>80</v>
+      <c r="A2" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="17">
+      <c r="F2" s="21">
         <v>2</v>
       </c>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="17"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="17"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="9"/>
@@ -2480,9 +2483,9 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="9"/>
@@ -2492,9 +2495,9 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="9"/>
@@ -2504,9 +2507,9 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="17"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
@@ -2516,15 +2519,15 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17" t="s">
-        <v>71</v>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10">
@@ -2533,10 +2536,10 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
@@ -2546,10 +2549,10 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="9"/>
@@ -2559,318 +2562,318 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="F11" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="21"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="17"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="10" t="s">
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="17"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="10" t="s">
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="17"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="F16" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="21"/>
+      <c r="B18" s="13" t="s">
         <v>93</v>
-      </c>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="17"/>
-      <c r="B18" s="13" t="s">
-        <v>94</v>
       </c>
       <c r="F18" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="17"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="21"/>
+      <c r="B20" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="17"/>
-      <c r="B20" s="13" t="s">
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="21"/>
+      <c r="B21" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="17"/>
-      <c r="B21" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="F21" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="F27" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F28" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="10" t="s">
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="10" t="s">
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="17" t="s">
+      <c r="B32" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="21"/>
+      <c r="B33" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="17"/>
-      <c r="B33" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="F33" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="17"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="21"/>
+      <c r="B35" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="17"/>
-      <c r="B35" s="13" t="s">
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="21"/>
+      <c r="B36" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="17"/>
-      <c r="B36" s="13" t="s">
-        <v>112</v>
-      </c>
       <c r="F36" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19" t="s">
-        <v>71</v>
+      <c r="A37" s="21"/>
+      <c r="B37" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F37" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F38" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="10" t="s">
+      <c r="F40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="F40" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="F41" s="10">
         <v>1</v>
@@ -2878,7 +2881,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="E43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43" s="10">
         <f>SUM(F2:F42)</f>
@@ -2908,18 +2911,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19" style="12" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="11" customWidth="1"/>
     <col min="4" max="4" width="14" style="11" customWidth="1"/>
     <col min="5" max="5" width="17" style="11" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="11" customWidth="1"/>
@@ -2939,125 +2942,125 @@
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" customHeight="1">
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="F4" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="18"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="22"/>
+      <c r="B6" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="18"/>
-      <c r="B6" s="11" t="s">
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="22"/>
+      <c r="B7" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="18"/>
-      <c r="B7" s="11" t="s">
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="22"/>
+      <c r="B8" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="18"/>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="22"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="18"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="11" t="s">
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="22"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="18"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="11" t="s">
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="22"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="18"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="11" t="s">
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="22"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="11" t="s">
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="22"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="F13" s="11">
         <v>1</v>
@@ -3065,10 +3068,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="11">
         <v>0</v>
@@ -3076,10 +3079,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>140</v>
       </c>
       <c r="F15" s="11">
         <v>1</v>
@@ -3087,7 +3090,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" s="11">
         <v>1</v>
@@ -3095,7 +3098,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" s="11">
         <v>1</v>
@@ -3103,7 +3106,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
@@ -3111,7 +3114,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F19" s="11">
         <v>1</v>
@@ -3119,10 +3122,10 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="F20" s="11">
         <v>0</v>
@@ -3130,7 +3133,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="E23" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" s="11">
         <f>SUM(F2:F22)</f>
@@ -3154,20 +3157,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="11" customWidth="1"/>
     <col min="4" max="4" width="21" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3185,197 +3188,197 @@
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="F2" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="21"/>
+      <c r="B3" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17"/>
-      <c r="B3" s="11" t="s">
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="21"/>
+      <c r="B4" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="17"/>
-      <c r="B4" s="11" t="s">
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="21"/>
+      <c r="B5" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="17"/>
-      <c r="B5" s="11" t="s">
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="21"/>
+      <c r="B6" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="11" t="s">
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="21"/>
+      <c r="B7" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="17"/>
-      <c r="B7" s="11" t="s">
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="21"/>
+      <c r="B8" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="17"/>
-      <c r="B8" s="11" t="s">
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17" t="s">
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="17" t="s">
+      <c r="B17" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="F17" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="17"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="21"/>
+      <c r="B19" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="17"/>
-      <c r="B19" s="11" t="s">
-        <v>157</v>
-      </c>
       <c r="F19" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="17"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F20" s="11">
         <v>1</v>
@@ -3383,7 +3386,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="E22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F22" s="11">
         <f>SUM(F2:F21)</f>
@@ -3412,338 +3415,338 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1">
-      <c r="A2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="21"/>
+      <c r="B4" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="22" t="s">
+      <c r="D4" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="21"/>
+      <c r="B5" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="21"/>
+      <c r="B6" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="21"/>
+      <c r="B7" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="21"/>
+      <c r="B8" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="21"/>
+      <c r="B9" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="17"/>
-      <c r="B4" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="17"/>
-      <c r="B5" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="17"/>
-      <c r="B7" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="17"/>
-      <c r="B8" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="17"/>
-      <c r="B9" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="17"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="21"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="17"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="21"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="F11" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="17"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F12" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="17"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22" t="s">
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="F14" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="21"/>
+      <c r="B15" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="17"/>
-      <c r="B15" s="22" t="s">
+      <c r="F15" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="21"/>
+      <c r="B16" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F16" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="21"/>
+      <c r="B17" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="21"/>
+      <c r="B18" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="21"/>
+      <c r="B20" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="17"/>
-      <c r="B16" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F16" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="17"/>
-      <c r="B17" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="17"/>
-      <c r="B18" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="17"/>
-      <c r="B20" s="22" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="21"/>
+      <c r="B21" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F20" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="17"/>
-      <c r="B21" s="22" t="s">
+      <c r="F21" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="21"/>
+      <c r="B22" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="F21" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="17"/>
-      <c r="B22" s="22" t="s">
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="21"/>
+      <c r="B23" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F22" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="17"/>
-      <c r="B23" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" s="22">
+      <c r="F23" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="F24" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="F24" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="22" t="s">
+      <c r="F25" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="22" t="s">
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F26" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="22" t="s">
+      <c r="F27" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="F27" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="22" t="s">
+      <c r="C28" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="F28" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="C29" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="F28" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="C29" s="22" t="s">
+      <c r="F29" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="C30" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="F29" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="C30" s="22" t="s">
+      <c r="F30" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="C31" s="22" t="s">
+      <c r="F31" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="F31" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="C32" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="F32" s="22">
+      <c r="F32" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="5:6">
       <c r="E34" t="s">
-        <v>207</v>
-      </c>
-      <c r="F34" s="22">
+        <v>206</v>
+      </c>
+      <c r="F34" s="19">
         <f>SUM(F2:F33)</f>
         <v>33</v>
       </c>
@@ -3768,21 +3771,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="15" customFormat="1" ht="26.25" customHeight="1">
@@ -3799,15 +3802,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3822,12 +3825,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InternationalChild/国际育儿工作量统计.xlsx
+++ b/InternationalChild/国际育儿工作量统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="960" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="1455" yWindow="960" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="287">
   <si>
     <t>一级模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57,18 +57,6 @@
   </si>
   <si>
     <t>轮播图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最热推荐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注饮食</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注健康</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -497,10 +485,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>童音电台</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -861,7 +845,335 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未定</t>
+    <t>明星秀妈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明星宝宝，明星家庭（相同）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀妈排行榜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀妈亮相</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最热日记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀妈日记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞，打赏，分享</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐日记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽大奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻牌抽大奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申领奖品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取纪实</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领奖品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实物礼品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟礼品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省市县</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝宝，爸爸，主播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通，vip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长豆管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电台管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微课管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微课管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最热推荐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注饮食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注健康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>试题管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣题管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐趣题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐幽默</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关文章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣播达人管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐趣播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐趣播达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主播管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合家秀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐秀妈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐日记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打赏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中奖会员管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案信息管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系我们管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>版权声明管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才招聘管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司简介管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付码管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>友情链接管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -996,7 +1308,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1055,6 +1367,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1404,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1422,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -1431,54 +1749,75 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>208</v>
+        <v>112</v>
+      </c>
+      <c r="B2" s="17">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="B3" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="10"/>
+        <v>115</v>
+      </c>
+      <c r="B4" s="10">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="10"/>
+        <v>116</v>
+      </c>
+      <c r="B5" s="10">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="B6" s="10">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="B7" s="10">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="B8" s="10">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>117</v>
+      <c r="B9" s="17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="2">
+        <f>SUM(B2:B11)</f>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -1506,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1535,59 +1874,59 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
-        <v>45</v>
+      <c r="A2" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" s="21">
+      <c r="F2" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="22"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3" s="21"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="22"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F4" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.5">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="7">
@@ -1595,55 +1934,55 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="22"/>
-      <c r="B9" s="7" t="s">
-        <v>8</v>
+      <c r="A9" s="24"/>
+      <c r="B9" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="7">
@@ -1651,13 +1990,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="22"/>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
+      <c r="A10" s="24"/>
+      <c r="B10" s="21" t="s">
+        <v>248</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="7">
@@ -1665,13 +2004,13 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="22"/>
-      <c r="B11" s="7" t="s">
-        <v>10</v>
+      <c r="A11" s="24"/>
+      <c r="B11" s="21" t="s">
+        <v>249</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="7">
@@ -1679,13 +2018,13 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="7">
@@ -1693,37 +2032,37 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21" t="s">
-        <v>14</v>
+      <c r="A13" s="24"/>
+      <c r="B13" s="23" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="21">
+      <c r="F13" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="22"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7">
@@ -1731,9 +2070,9 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1743,9 +2082,9 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="22"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1755,9 +2094,9 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="22"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1767,9 +2106,9 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="22"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1779,9 +2118,9 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="22"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1791,11 +2130,11 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="22" t="s">
-        <v>51</v>
+      <c r="A21" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
@@ -1805,9 +2144,9 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="22"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
@@ -1817,9 +2156,9 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="22"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
@@ -1829,9 +2168,9 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="22"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
@@ -1841,9 +2180,9 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="22"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
@@ -1853,36 +2192,36 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="22"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="21">
+      <c r="F26" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="22"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="21"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>33</v>
+      <c r="A28" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="9"/>
@@ -1892,10 +2231,10 @@
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="9"/>
@@ -1905,10 +2244,10 @@
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="9"/>
@@ -1918,10 +2257,10 @@
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1930,12 +2269,12 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21" t="s">
-        <v>34</v>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1945,10 +2284,10 @@
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1958,10 +2297,10 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1971,10 +2310,10 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -1983,26 +2322,26 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21" t="s">
-        <v>58</v>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F36" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -2011,93 +2350,93 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F38" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="21" t="s">
-        <v>37</v>
+      <c r="A39" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="21">
+      <c r="F39" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="21"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="21"/>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="21"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="21"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="21"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="21"/>
+      <c r="F42" s="23"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="21"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="21"/>
+      <c r="F43" s="23"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="21"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="21"/>
+      <c r="F44" s="23"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="21"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="21"/>
+      <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="7"/>
@@ -2121,7 +2460,7 @@
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F48" s="7">
         <f>SUM(F2:F47)</f>
@@ -2272,18 +2611,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21" t="s">
-        <v>46</v>
+      <c r="A2" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2294,9 +2633,9 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="21"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -2307,12 +2646,12 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="9"/>
@@ -2322,13 +2661,13 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10">
@@ -2337,12 +2676,12 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21" t="s">
-        <v>71</v>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="9"/>
@@ -2352,13 +2691,13 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10">
@@ -2367,9 +2706,9 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="21"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -2383,7 +2722,7 @@
     <row r="10" spans="1:7" ht="13.5" customHeight="1"/>
     <row r="11" spans="1:7" ht="13.5" customHeight="1">
       <c r="E11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7">
         <f>SUM(F2:F10)</f>
@@ -2414,7 +2753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -2440,40 +2779,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21" t="s">
-        <v>79</v>
+      <c r="A2" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="21">
+      <c r="F2" s="23">
         <v>2</v>
       </c>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="21"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="21"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="21"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="9"/>
@@ -2483,9 +2822,9 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="21"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="9"/>
@@ -2495,9 +2834,9 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="9"/>
@@ -2507,9 +2846,9 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
@@ -2519,15 +2858,15 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21" t="s">
-        <v>70</v>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10">
@@ -2536,10 +2875,10 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
@@ -2549,10 +2888,10 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="9"/>
@@ -2562,318 +2901,318 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="23" t="s">
-        <v>84</v>
+      <c r="A11" s="23"/>
+      <c r="B11" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F11" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F12" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="21"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="21"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="21"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="F16" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="21" t="s">
-        <v>91</v>
+      <c r="A17" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F17" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="21"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F18" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="21"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F19" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="21"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="23"/>
+      <c r="B21" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="23"/>
+      <c r="B22" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="21"/>
-      <c r="B21" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="21"/>
-      <c r="B22" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F22" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="21"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="23"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="23"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="23"/>
+      <c r="B26" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="21"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="21"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="21"/>
-      <c r="B26" s="23" t="s">
-        <v>100</v>
-      </c>
       <c r="C26" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F26" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="21"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F27" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="21"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F28" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="21"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="23"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="21"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="10" t="s">
+      <c r="B32" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="21"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="10" t="s">
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="23"/>
+      <c r="B33" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="21"/>
-      <c r="B33" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="F33" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="21"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F34" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="21"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F35" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="21"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F36" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="21"/>
-      <c r="B37" s="23" t="s">
-        <v>70</v>
+      <c r="A37" s="23"/>
+      <c r="B37" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F37" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="21"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F38" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="21"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="23"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="23"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="F39" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="21"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="21"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="F41" s="10">
         <v>1</v>
@@ -2881,7 +3220,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="E43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F43" s="10">
         <f>SUM(F2:F42)</f>
@@ -2915,7 +3254,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2942,125 +3281,125 @@
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="11"/>
+      <c r="A2" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="B2" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F2" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="11"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="22" t="s">
-        <v>124</v>
-      </c>
+      <c r="A4" s="24"/>
       <c r="B4" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F4" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="24"/>
+      <c r="B6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="24"/>
+      <c r="B7" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="24"/>
+      <c r="B8" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="22"/>
-      <c r="B6" s="11" t="s">
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="22"/>
-      <c r="B7" s="11" t="s">
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="24"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21" t="s">
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="24"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="24"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="11" t="s">
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="F13" s="11">
         <v>1</v>
@@ -3068,72 +3407,77 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F14" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="24"/>
+      <c r="B16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="24"/>
+      <c r="B17" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="24"/>
+      <c r="B18" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="24"/>
+      <c r="B19" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="11" t="s">
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="24"/>
+      <c r="B20" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="11" t="s">
-        <v>147</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F20" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="1:6">
       <c r="E23" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F23" s="11">
         <f>SUM(F2:F22)</f>
@@ -3141,9 +3485,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A2:A13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3161,7 +3506,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -3188,197 +3533,197 @@
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="23"/>
+      <c r="B3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="23"/>
+      <c r="B4" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="23"/>
+      <c r="B5" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="23"/>
+      <c r="B6" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="21"/>
-      <c r="B3" s="11" t="s">
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="23"/>
+      <c r="B7" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="21"/>
-      <c r="B4" s="11" t="s">
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="23"/>
+      <c r="B8" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="21"/>
-      <c r="B5" s="11" t="s">
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="21"/>
-      <c r="B6" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="21"/>
-      <c r="B7" s="11" t="s">
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="21"/>
-      <c r="B8" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21" t="s">
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D12" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21" t="s">
+      <c r="F14" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="11" t="s">
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="F17" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="21"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="21"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F19" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="21"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F20" s="11">
         <v>1</v>
@@ -3386,7 +3731,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="E22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F22" s="11">
         <f>SUM(F2:F21)</f>
@@ -3418,13 +3763,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="21" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="19" customWidth="1"/>
     <col min="3" max="3" width="18.625" style="19" customWidth="1"/>
     <col min="4" max="4" width="15.375" style="19" customWidth="1"/>
@@ -3446,297 +3791,309 @@
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="23"/>
+      <c r="B4" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="23"/>
+      <c r="B5" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="23"/>
+      <c r="B6" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="19" t="s">
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="23"/>
+      <c r="B7" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="23"/>
+      <c r="B8" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="23"/>
+      <c r="B9" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="23"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="23"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="23"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="21"/>
-      <c r="B4" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="21"/>
-      <c r="B5" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="21"/>
-      <c r="B6" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="21"/>
-      <c r="B7" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="21"/>
-      <c r="B8" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="23"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="19" t="s">
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="21"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="19" t="s">
+      <c r="B14" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="21"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="19" t="s">
+      <c r="F14" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="23"/>
+      <c r="B15" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="F12" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="21"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="F14" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="21"/>
-      <c r="B15" s="19" t="s">
-        <v>185</v>
       </c>
       <c r="F15" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="21"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="23"/>
+      <c r="B17" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="23"/>
+      <c r="B18" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="21"/>
-      <c r="B17" s="19" t="s">
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="23"/>
+      <c r="B20" s="19" t="s">
         <v>187</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="21"/>
-      <c r="B18" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="F18" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="21"/>
-      <c r="B20" s="19" t="s">
-        <v>191</v>
       </c>
       <c r="F20" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="21"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="23"/>
+      <c r="B22" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="23"/>
+      <c r="B23" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>192</v>
-      </c>
-      <c r="F21" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="21"/>
-      <c r="B22" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="21"/>
-      <c r="B23" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="F24" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
+      <c r="A25" s="23"/>
       <c r="B25" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="23"/>
+      <c r="B26" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="23"/>
+      <c r="B27" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="23"/>
+      <c r="B28" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="F25" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="19" t="s">
+      <c r="F28" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="23"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F26" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="19" t="s">
+      <c r="F29" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="23"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F27" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="19" t="s">
+      <c r="F30" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="23"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="F31" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="23"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="19" t="s">
         <v>201</v>
-      </c>
-      <c r="F28" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="C29" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="F29" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="C30" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="F30" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="C31" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="C32" s="19" t="s">
-        <v>205</v>
       </c>
       <c r="F32" s="19">
         <v>1</v>
@@ -3744,7 +4101,7 @@
     </row>
     <row r="34" spans="5:6">
       <c r="E34" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F34" s="19">
         <f>SUM(F2:F33)</f>
@@ -3752,7 +4109,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="A24:A32"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="B9:B13"/>
@@ -3772,20 +4131,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="21" customWidth="1"/>
     <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="15" customFormat="1" ht="26.25" customHeight="1">
@@ -3802,18 +4161,169 @@
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="21" t="s">
         <v>207</v>
       </c>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="23"/>
+      <c r="B6" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="23"/>
+      <c r="B7" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="23"/>
+      <c r="B8" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="23"/>
+      <c r="B12" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="23"/>
+      <c r="B13" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="23"/>
+      <c r="B15" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="21">
+        <f>SUM(F2:F16)</f>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3826,12 +4336,613 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="16.125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="20" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="23"/>
+      <c r="B3" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="23"/>
+      <c r="B4" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="23"/>
+      <c r="B6" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="23"/>
+      <c r="B7" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="23"/>
+      <c r="B8" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F15" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="F21" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="F22" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="F26" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F27" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="F28" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" t="s">
+        <v>251</v>
+      </c>
+      <c r="F30" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" t="s">
+        <v>252</v>
+      </c>
+      <c r="F31" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" t="s">
+        <v>253</v>
+      </c>
+      <c r="F32" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F33" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" t="s">
+        <v>257</v>
+      </c>
+      <c r="F35" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="F38" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="F39" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="F40" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" t="s">
+        <v>274</v>
+      </c>
+      <c r="F41" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F42" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="23"/>
+      <c r="B43" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F43" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="23"/>
+      <c r="B44" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F44" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="23"/>
+      <c r="B45" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="F45" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F46" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="23"/>
+      <c r="B47" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="F47" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="23"/>
+      <c r="B48" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F48" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="23"/>
+      <c r="B49" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="F49" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="23"/>
+      <c r="B50" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F50" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="23"/>
+      <c r="B51" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F51" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="23"/>
+      <c r="B52" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="F52" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="23"/>
+      <c r="B53" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="F53" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="23"/>
+      <c r="B54" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F54" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="E56" t="s">
+        <v>284</v>
+      </c>
+      <c r="F56" s="21">
+        <f>SUM(F2:F55)</f>
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A9:A41"/>
+    <mergeCell ref="A46:A54"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B28:B35"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
